--- a/covid19_drdfm/data/example-output/AK/df.xlsx
+++ b/covid19_drdfm/data/example-output/AK/df.xlsx
@@ -447,22 +447,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Employment1</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Employment2</t>
+          <t>Prod</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CPIU</t>
+          <t>UI</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PCEC</t>
+          <t>UR</t>
         </is>
       </c>
     </row>
@@ -471,16 +471,16 @@
         <v>40940</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8170711884503437</v>
+        <v>0.6164068416721536</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8237297960071758</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4804248097350872</v>
+        <v>0.1440860989987424</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5326596147660031</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>40969</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8135122768330407</v>
+        <v>0.621369126268051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8217942005629378</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4783596646895119</v>
+        <v>0.1122897721076911</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5620844651853298</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>41000</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8018882440272991</v>
+        <v>0.6823715730082882</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8158387327196476</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4580164258916395</v>
+        <v>0.1074542998569336</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5446525784407911</v>
+        <v>0.3866666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>41030</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8182644828456356</v>
+        <v>0.7201480508129824</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8168747967004858</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2823120937051792</v>
+        <v>0.05512905676990382</v>
       </c>
       <c r="E5" t="n">
-        <v>0.496823265987087</v>
+        <v>0.3866666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>41061</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8137537407112719</v>
+        <v>0.7105015615464281</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8153773111977091</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3408982227867237</v>
+        <v>0.1015260822542131</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4986300050073535</v>
+        <v>0.3866666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>41091</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8032999920192481</v>
+        <v>0.6525811755071577</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8184443536062311</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3934463727922193</v>
+        <v>0.09407286549104771</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4985300066268447</v>
+        <v>0.3733333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>41122</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8069065484055066</v>
+        <v>0.6060805420880557</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8197213812617881</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6527359268372354</v>
+        <v>0.13148584303806</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4604388239024145</v>
+        <v>0.3733333333333333</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>41153</v>
       </c>
       <c r="B9" t="n">
-        <v>0.834591805387279</v>
+        <v>0.6109846329278866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8199184598513599</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6040928049754837</v>
+        <v>0.1072413132675408</v>
       </c>
       <c r="E9" t="n">
-        <v>0.518296328753786</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>41183</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8210965500458856</v>
+        <v>0.5879194573625603</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8189585210915629</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D10" t="n">
-        <v>0.506728251696605</v>
+        <v>0.1979392916345319</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6299096914841315</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>41214</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8033629658599835</v>
+        <v>0.6442164614911825</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8191157606636335</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3006557725101743</v>
+        <v>0.3061360621220456</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5036900929811654</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>41244</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8068337204551878</v>
+        <v>0.6359996657102006</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8223201170577645</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D12" t="n">
-        <v>0.37413804795302</v>
+        <v>0.2255652297550041</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4695708660232183</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>41275</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8055543580226956</v>
+        <v>0.6770921850179689</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8202058936939317</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4730736920152049</v>
+        <v>0.2280251376141953</v>
       </c>
       <c r="E13" t="n">
-        <v>0.59595739971971</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>41306</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8095017709632395</v>
+        <v>0.6502556855926304</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8238479088897778</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6349860070635606</v>
+        <v>0.06453636226351153</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5145989657672945</v>
+        <v>0.3466666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>41334</v>
       </c>
       <c r="B15" t="n">
-        <v>0.805262264353838</v>
+        <v>0.7273742772258296</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8183347319329395</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2471689513070562</v>
+        <v>0.124020122677636</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4881206313599965</v>
+        <v>0.3466666666666667</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>41365</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8185903306715626</v>
+        <v>0.5873098952179144</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8200477520852829</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2813645162752761</v>
+        <v>0.101632600596866</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4739383917639158</v>
+        <v>0.3466666666666667</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>41395</v>
       </c>
       <c r="B17" t="n">
-        <v>0.815943793632123</v>
+        <v>0.5641802033850231</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8211815955429621</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3993518297214528</v>
+        <v>0.08932505371864924</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5030030922048085</v>
+        <v>0.3466666666666667</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>41426</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8112013334931283</v>
+        <v>0.5400082867983307</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8196578374857798</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4918638127890506</v>
+        <v>0.1089233083405809</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5563584867112221</v>
+        <v>0.3466666666666667</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>41456</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8165747062094404</v>
+        <v>0.7805034209619559</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8173653310839419</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4719810427311055</v>
+        <v>0.0586162568637577</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5214607516946247</v>
+        <v>0.3466666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>41487</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8091941800468382</v>
+        <v>0.7751568136713394</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8223289524283204</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4921920362000497</v>
+        <v>0.1261853285195023</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5110193252715993</v>
+        <v>0.3466666666666667</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>41518</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8102815037840168</v>
+        <v>0.7921401658634863</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8198728129715163</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3976005690238599</v>
+        <v>0.0963279929210932</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5071548713574783</v>
+        <v>0.3466666666666667</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>41548</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7748893508307949</v>
+        <v>0.5602705796001579</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8213239601066769</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4050553748719518</v>
+        <v>0.2421768902759835</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6021948355235164</v>
+        <v>0.3466666666666667</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>41579</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8412095355145293</v>
+        <v>0.5616119572896627</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8235377070539099</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4666731454969064</v>
+        <v>0.2947229178095876</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5673374963087496</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>41609</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8177730833014433</v>
+        <v>0.5542663252114519</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8145750700290521</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D24" t="n">
-        <v>0.504271433281398</v>
+        <v>0.194697418949688</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5298720316666941</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>41640</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8203859482666936</v>
+        <v>0.6771956025949474</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8198329027452651</v>
+        <v>0.6901305918451194</v>
       </c>
       <c r="D25" t="n">
-        <v>0.493934346505972</v>
+        <v>0.1804486979513476</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4869849820012342</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>41671</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8063658967333401</v>
+        <v>0.6975406611789488</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8186518557405352</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4316850960443767</v>
+        <v>0.1270476704292116</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4590656589206957</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>41699</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8254627173521412</v>
+        <v>0.6755643557920494</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8236449003660327</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4759716818008413</v>
+        <v>0.1201335951540758</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5813985852189747</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>41730</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8076266774238325</v>
+        <v>0.7029687401246343</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8249493924630638</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D28" t="n">
-        <v>0.467607911577312</v>
+        <v>0.07921217235477812</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5810588211558567</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>41760</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8126222115907127</v>
+        <v>0.706220521880068</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8205458782403786</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4694354679379368</v>
+        <v>0.1012240624208627</v>
       </c>
       <c r="E29" t="n">
-        <v>0.568720941497564</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>41791</v>
       </c>
       <c r="B30" t="n">
-        <v>0.822080809866217</v>
+        <v>0.7153292372930169</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8257039822361284</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4420601940130754</v>
+        <v>0.1042910032867682</v>
       </c>
       <c r="E30" t="n">
-        <v>0.510356571489772</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>41821</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8123850160291054</v>
+        <v>0.6111041377250467</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8221142682634116</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4328522352647602</v>
+        <v>0.07000526180675472</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5746783049379056</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>41852</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8116286777528561</v>
+        <v>0.6361962443248149</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8196616635690087</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3723022077765162</v>
+        <v>0.111449767111071</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4364593754966282</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>41883</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8158018120719297</v>
+        <v>0.6301351633293351</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8245558462563858</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3832166305801797</v>
+        <v>0.09578990577042812</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5182623051006804</v>
+        <v>0.3066666666666666</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>41913</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8300547056264846</v>
+        <v>0.5295629292596407</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8220236597927636</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3705152434098531</v>
+        <v>0.17172887274119</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4859909825289625</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>41944</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8061260573769912</v>
+        <v>0.5357992890571851</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8236746516212029</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2910385964014466</v>
+        <v>0.2772965514400872</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5024243733665575</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>41974</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8144364776464362</v>
+        <v>0.5459360694544858</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8233744488067245</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2342588880723614</v>
+        <v>0.2158126148065936</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4894897771821189</v>
+        <v>0.2533333333333333</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>42005</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8257177919739254</v>
+        <v>0.4933860342845025</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8201488230902793</v>
+        <v>0.8591709228043908</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07870096975326518</v>
+        <v>0.1607343666376183</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3813286191733929</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>42036</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8034061642763356</v>
+        <v>0.3913327842232263</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8229426152859306</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4991270461619542</v>
+        <v>0.1319021989761222</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4958342593224085</v>
+        <v>0.2533333333333333</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>42064</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8098794065368862</v>
+        <v>0.3822867495056693</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8161387989449225</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5066174053952723</v>
+        <v>0.1190369140199784</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5469451477989283</v>
+        <v>0.2533333333333333</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>42095</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8204703357769915</v>
+        <v>0.6819479128400981</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8233488059890725</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4289422565245661</v>
+        <v>0.07275719059816861</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5613252734707689</v>
+        <v>0.2533333333333333</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>42125</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8177257676594207</v>
+        <v>0.656809246632998</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8256853374382761</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5349905266530876</v>
+        <v>0.05308076206967416</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5182261974851207</v>
+        <v>0.2533333333333333</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>42156</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8069081625681082</v>
+        <v>0.6638021090385847</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8184754748785685</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5101022712614719</v>
+        <v>0.1240000415842817</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5153510997590612</v>
+        <v>0.2533333333333333</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>42186</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8074361484750139</v>
+        <v>0.5757505992860273</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8239159639196696</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4545412938591608</v>
+        <v>0.06637858167142739</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4842923898420154</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>42217</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8192830710681206</v>
+        <v>0.5877020937600063</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8179084431114235</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3796449961608567</v>
+        <v>0.1354541324196869</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4696773108866913</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>42248</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7944628639571398</v>
+        <v>0.6101593227730051</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8176684171428668</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2738033829246919</v>
+        <v>0.1258471948126747</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5232024759275713</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>42278</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8217058068666531</v>
+        <v>0.6166005006397922</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8248840524521739</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4264502145385787</v>
+        <v>0.239331943070692</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4141878618902529</v>
+        <v>0.2533333333333333</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>42309</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8145543568902583</v>
+        <v>0.6045189410425847</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8211576163575424</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4361074937639563</v>
+        <v>0.2982344488436959</v>
       </c>
       <c r="E47" t="n">
-        <v>0.501270068544386</v>
+        <v>0.2533333333333333</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>42339</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8301987447499016</v>
+        <v>0.6262390898640361</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8230098564771564</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3291286649421136</v>
+        <v>0.2411146563540022</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4631148953474943</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>42370</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8252302269764712</v>
+        <v>0.6218268913301505</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8168565564594282</v>
+        <v>0.774400728555791</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3582333302100829</v>
+        <v>0.1810869781882656</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5771039990911292</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>42401</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8168785545332913</v>
+        <v>0.6391815304710607</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8206159793291865</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D50" t="n">
-        <v>0.317139331932879</v>
+        <v>0.1450492108969805</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5496922337370033</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>42430</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8166172624762037</v>
+        <v>0.5934462590949157</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8223074009416873</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D51" t="n">
-        <v>0.527342817213182</v>
+        <v>0.1168125513883238</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5377388043426896</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>42461</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8019526135529373</v>
+        <v>0.7080970658943831</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8197387300407529</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5600276253743403</v>
+        <v>0.09495281366725412</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6392441489619071</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>42491</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8089540979698909</v>
+        <v>0.7359868866891046</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8141278214900715</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4911291353516724</v>
+        <v>0.08060951510601597</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5461856617431168</v>
+        <v>0.2933333333333332</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>42522</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8100965821959163</v>
+        <v>0.7291516259314216</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8220806842831399</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5104932049111612</v>
+        <v>0.07851934698335698</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5163659370701217</v>
+        <v>0.2933333333333332</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>42552</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8183967831948311</v>
+        <v>0.7135596353022643</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8263757316783266</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3560972505717873</v>
+        <v>0.07622147335176178</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5619120569573679</v>
+        <v>0.2933333333333332</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>42583</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8147146482922014</v>
+        <v>0.696689180193885</v>
       </c>
       <c r="C56" t="n">
-        <v>0.818119570113392</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4669182200412889</v>
+        <v>0.1483729308955621</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5786275656828933</v>
+        <v>0.3066666666666666</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>42614</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8063220843276583</v>
+        <v>0.6929516378683822</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8237947186483667</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5033182562553414</v>
+        <v>0.1142087580194815</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5104615889743533</v>
+        <v>0.3066666666666666</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>42644</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8080478076572463</v>
+        <v>0.7378023525807629</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8165303388546008</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4901319569909405</v>
+        <v>0.2272379146745629</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5415468012974624</v>
+        <v>0.3066666666666666</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>42675</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8124965697135286</v>
+        <v>0.7656909454793792</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8169869428260327</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4353786391004341</v>
+        <v>0.2675140607393116</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4469234892367611</v>
+        <v>0.3066666666666666</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>42705</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8139368519997429</v>
+        <v>0.7429254332089504</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8207709777432542</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4986856164755484</v>
+        <v>0.177570167950808</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5252535811670093</v>
+        <v>0.3066666666666666</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>42736</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8067712217436585</v>
+        <v>0.7323538767891067</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8212166282063189</v>
+        <v>0.7424185238188414</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5700337409100718</v>
+        <v>0.2248148594884905</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6458999251126305</v>
+        <v>0.2933333333333332</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>42767</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8182238647215494</v>
+        <v>0.7655461993424407</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8202493854314398</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D62" t="n">
-        <v>0.454856946818932</v>
+        <v>0.1291275243538341</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5859296763199178</v>
+        <v>0.2933333333333332</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>42795</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8270024494154147</v>
+        <v>0.7972672935453989</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8173434920035634</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3578150554331625</v>
+        <v>0.09801427958188021</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3562604739452869</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>42826</v>
       </c>
       <c r="B64" t="n">
-        <v>0.813441790037817</v>
+        <v>0.6656121123152663</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8198888825138224</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4379823293781138</v>
+        <v>0.08969926805070813</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6272311209685715</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>42856</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8005818281819526</v>
+        <v>0.7040975319800307</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8206386649315868</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3433451879440547</v>
+        <v>0.06547998092324661</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4880820644851083</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>42887</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8154578610815599</v>
+        <v>0.6848653951925091</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8199435654468733</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D66" t="n">
-        <v>0.410549347079741</v>
+        <v>0.05171211129733437</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5391873865133651</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>42917</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8155122669478176</v>
+        <v>0.7631244529995055</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8193649578410942</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3952852113377378</v>
+        <v>0.09963686794957161</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4579019790849181</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>42948</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8046915430680994</v>
+        <v>0.7299326898404672</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8175015014051229</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5609150233935125</v>
+        <v>0.1329093331748759</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5177715346724806</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>42979</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8335959615893236</v>
+        <v>0.7081952081824725</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8158701824219891</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6199503001817661</v>
+        <v>0.09028407413057055</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5246651788249039</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>43009</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7839068529739605</v>
+        <v>0.7249881364338913</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8179849777581502</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4163665091399184</v>
+        <v>0.2330396301547218</v>
       </c>
       <c r="E70" t="n">
-        <v>0.65003305939824</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>43040</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8136231473531693</v>
+        <v>0.7218947361669726</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8210746405241639</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5054531287823583</v>
+        <v>0.2859215980242332</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4733556352768684</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>43070</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8103141008001655</v>
+        <v>0.7249093672816266</v>
       </c>
       <c r="C72" t="n">
-        <v>0.817819832281291</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4790655403947179</v>
+        <v>0.2095573547602889</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5407224606107112</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>43101</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8246466423312068</v>
+        <v>0.6609278851124062</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8180028465074485</v>
+        <v>0.2829172649037662</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5579617292651852</v>
+        <v>0.1916099532807182</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6959694050801797</v>
+        <v>0.2533333333333333</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>43132</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8330659605477557</v>
+        <v>0.6782284753078431</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8269820793430065</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5115782435314746</v>
+        <v>0.1604063536251415</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6019346898569392</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>43160</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8075171382937057</v>
+        <v>0.6942504408829298</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8207586939303975</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4066752155894716</v>
+        <v>0.09650908867588781</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6188912423463662</v>
+        <v>0.2266666666666666</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>43191</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8102497836714794</v>
+        <v>0.6701090731046015</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8178242058172626</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4864555798421895</v>
+        <v>0.1089714030996026</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5637695601313486</v>
+        <v>0.2133333333333334</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>43221</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8183984649936918</v>
+        <v>0.6710208021234072</v>
       </c>
       <c r="C77" t="n">
-        <v>0.824702428264898</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4990037387758953</v>
+        <v>0.02954573504921448</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5790770849706807</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>43252</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8106440688255686</v>
+        <v>0.6826701985898324</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8202715092558686</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D78" t="n">
-        <v>0.443536424040789</v>
+        <v>0.05045331288529883</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5018084037391228</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>43282</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8198417357191273</v>
+        <v>0.7197686179088395</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8144787013520314</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4183183667114636</v>
+        <v>0.1246226386877379</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5267517546804865</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>43313</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7853610245878195</v>
+        <v>0.7217976974583994</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8217106416119848</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4596972479140294</v>
+        <v>0.06500747782321484</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4238883823369072</v>
+        <v>0.1866666666666666</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>43344</v>
       </c>
       <c r="B81" t="n">
-        <v>0.824129043682934</v>
+        <v>0.7001108841853869</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8157033295949545</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4715287686595205</v>
+        <v>0.1149935143650011</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5989646552265293</v>
+        <v>0.1866666666666666</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>43374</v>
       </c>
       <c r="B82" t="n">
-        <v>0.819552886792289</v>
+        <v>0.6507496823181886</v>
       </c>
       <c r="C82" t="n">
-        <v>0.818528860816482</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4961603152117828</v>
+        <v>0.1838403990939367</v>
       </c>
       <c r="E82" t="n">
-        <v>0.529738074941725</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>43405</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8179852778074733</v>
+        <v>0.6708553423466506</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8159579012005663</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3415997683456339</v>
+        <v>0.3205300384075511</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5768185843840613</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>43435</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8101511910185669</v>
+        <v>0.6741237090032509</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8191864508538729</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3600564217250121</v>
+        <v>0.2166467015686408</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5533437486194742</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>43466</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7973139801202804</v>
+        <v>0.6257482852633167</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8238482704331076</v>
+        <v>0.4480363918298151</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3647174717258458</v>
+        <v>0.21112718323324</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5077104628409661</v>
+        <v>0.1866666666666666</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>43497</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8196116871088801</v>
+        <v>0.5994275175881978</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8115732332084368</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5038792710841919</v>
+        <v>0.1460497254908808</v>
       </c>
       <c r="E86" t="n">
-        <v>0.463085594596551</v>
+        <v>0.1733333333333333</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>43525</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8018329244093183</v>
+        <v>0.581022867246383</v>
       </c>
       <c r="C87" t="n">
-        <v>0.820830340412487</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5913563343395413</v>
+        <v>0.1070097978083133</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5229124522593995</v>
+        <v>0.1599999999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>43556</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8045367245601444</v>
+        <v>0.6316208854271055</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8213716492306352</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5446092017417534</v>
+        <v>0.05311231739864392</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6567251848649527</v>
+        <v>0.1466666666666666</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>43586</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8113212842232385</v>
+        <v>0.6685910221009247</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8148626901969781</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4097728513891348</v>
+        <v>0.01913603512735493</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5053976234202497</v>
+        <v>0.1466666666666666</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>43617</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8186221843914154</v>
+        <v>0.6681686659419835</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8185509208111434</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D90" t="n">
-        <v>0.38649153885636</v>
+        <v>0.1362984965529224</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5937308945445607</v>
+        <v>0.1466666666666666</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>43647</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8189620174086807</v>
+        <v>0.7282777117401232</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8154117944889092</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4792752537025191</v>
+        <v>0.08302764632481906</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5339395888648751</v>
+        <v>0.1466666666666666</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>43678</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8154828077055877</v>
+        <v>0.7451096573892022</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8209335594642065</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4312301472581591</v>
+        <v>0.1233335959615849</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4964481869322119</v>
+        <v>0.1466666666666666</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>43709</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8241791552854203</v>
+        <v>0.7396588655575723</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8200016738212278</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4565441355295847</v>
+        <v>0.1225453046803383</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4590688056041738</v>
+        <v>0.1333333333333334</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>43739</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8126319742663987</v>
+        <v>0.6526932992257946</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8171276262622229</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5099701165816628</v>
+        <v>0.2005696490265312</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5335409584901164</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>43770</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8124937237162303</v>
+        <v>0.676616113422199</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8202781681486746</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4682875810744797</v>
+        <v>0.3435755222492816</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4242667995674879</v>
+        <v>0.1066666666666667</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>43800</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8132794396938479</v>
+        <v>0.6456108962880549</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8161275251408611</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4666626050633214</v>
+        <v>0.2087906175649007</v>
       </c>
       <c r="E96" t="n">
-        <v>0.610186243029978</v>
+        <v>0.1066666666666667</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>43831</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7973372499006984</v>
+        <v>0.5518712805846355</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8246147103723622</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4562957516250217</v>
+        <v>0.1689552854503726</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5996197569036025</v>
+        <v>0.1066666666666667</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>43862</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8137453876417202</v>
+        <v>0.5626205813947409</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8223618312985181</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D98" t="n">
-        <v>0.439059555797408</v>
+        <v>0.1138347626910712</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5672520769960205</v>
+        <v>0.1066666666666667</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>43891</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6969692592429803</v>
+        <v>0.6138800449416087</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7600573027159682</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D99" t="n">
-        <v>0.2262743642876197</v>
+        <v>0.1588027269158376</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3475686660349202</v>
+        <v>0.1066666666666667</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>43922</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>0.1854891697657058</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>43952</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9569070071883189</v>
+        <v>0.06373611065004237</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9232072175524301</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3522132825430839</v>
+        <v>0.1308972280643041</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5280927989299551</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>43983</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6138188260274466</v>
+        <v>0.1087147453695275</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5961687781641267</v>
+        <v>0.9200000000000002</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>44013</v>
       </c>
       <c r="B103" t="n">
-        <v>0.8619915693855537</v>
+        <v>0.9957808963720891</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8704398225170659</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6223428498919439</v>
+        <v>0.09586263734510431</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7150513986441051</v>
+        <v>0.9066666666666665</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>44044</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9301592416903756</v>
+        <v>0.986287117004685</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8813465190089401</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D104" t="n">
-        <v>0.568632768710604</v>
+        <v>0.0358803669984015</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6997994837507728</v>
+        <v>0.4533333333333334</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>44075</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8220104815944788</v>
+        <v>0.997992660056092</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8502188608049476</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4905468607131919</v>
+        <v>0.01094657111090652</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5652936534579119</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>44105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8854473545587337</v>
+        <v>0.8907890136135153</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8405250090915963</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4091997879257664</v>
+        <v>0.02270134778887667</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4323131678084687</v>
+        <v>0.3866666666666666</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>44136</v>
       </c>
       <c r="B107" t="n">
-        <v>0.809529527014256</v>
+        <v>0.8904422706182485</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8226838610176903</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4466437111373774</v>
+        <v>0.1670730428916797</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4264583262667098</v>
+        <v>0.3733333333333333</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>44166</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8080962408847309</v>
+        <v>0.8231783316580503</v>
       </c>
       <c r="C108" t="n">
-        <v>0.801936736537891</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5321018246348093</v>
+        <v>0.164798398250988</v>
       </c>
       <c r="E108" t="n">
-        <v>0.7123305533138278</v>
+        <v>0.3866666666666666</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>44197</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8037985530107958</v>
+        <v>0.8532357987090885</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8316384498028809</v>
+        <v>0.3638093175350565</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4943928131909315</v>
+        <v>0.1437737888704036</v>
       </c>
       <c r="E109" t="n">
-        <v>0.6997077357536218</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>44228</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8186046173234472</v>
+        <v>0.8578370890224951</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8347112478477754</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5855552089591999</v>
+        <v>0.06560191823470822</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5605591914330481</v>
+        <v>0.3466666666666667</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>44256</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8259506443671929</v>
+        <v>0.8148460278859364</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8426814771918714</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6801679785195373</v>
+        <v>0.08684425968862515</v>
       </c>
       <c r="E111" t="n">
-        <v>0.7989657965682966</v>
+        <v>0.3466666666666667</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>44287</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8215175625321907</v>
+        <v>0.7908049676540101</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8233982244678987</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D112" t="n">
-        <v>0.681290936005489</v>
+        <v>0.08858162541534628</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3466666666666667</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>44317</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8177091421539534</v>
+        <v>0.7924606105483781</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8308942638373007</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7097890436050871</v>
+        <v>0.06723860588676225</v>
       </c>
       <c r="E113" t="n">
-        <v>0.89195293622401</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>44348</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8139240932155383</v>
+        <v>0.7829494782701982</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8388879424853678</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7918698206865462</v>
+        <v>0.05680511272516202</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8578031108107756</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>44378</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8447262678280361</v>
+        <v>0.8191143053132359</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8416470585126722</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5933676549433829</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.7748220802009727</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>44409</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8216318148412766</v>
+        <v>0.8261995895600249</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8374910264999796</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5369842896455852</v>
+        <v>0.04715612640420984</v>
       </c>
       <c r="E116" t="n">
-        <v>0.7137546556932208</v>
+        <v>0.2533333333333333</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>44440</v>
       </c>
       <c r="B117" t="n">
-        <v>0.829324685465715</v>
+        <v>0.8364256009224009</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8333904031509844</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5733056891296506</v>
+        <v>0.3121435017940396</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5994127930325178</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>44470</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8248883981973458</v>
+        <v>0.8730233769786331</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8417035358198151</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7869501147721993</v>
+        <v>0.04351923620271793</v>
       </c>
       <c r="E118" t="n">
-        <v>0.7882130413787518</v>
+        <v>0.1733333333333333</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>44501</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8454799427581161</v>
+        <v>0.8622525100974402</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8353271160933808</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7086646182002438</v>
+        <v>0.1678222464745851</v>
       </c>
       <c r="E119" t="n">
-        <v>0.8911020815703479</v>
+        <v>0.1466666666666666</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>44531</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8253004314759759</v>
+        <v>0.8687237521401663</v>
       </c>
       <c r="C120" t="n">
-        <v>0.833561803676217</v>
+        <v>0.6709307585010981</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6505070675988471</v>
+        <v>0.2223187555156418</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9171476396221474</v>
+        <v>0.1466666666666666</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>44562</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8417655800512969</v>
+        <v>0.6200002576047271</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8258912572247243</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6833060359507753</v>
+        <v>0.1447208415238817</v>
       </c>
       <c r="E121" t="n">
-        <v>0.849716319317243</v>
+        <v>0.1599999999999999</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>44593</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8225231991975527</v>
+        <v>0.609954600126257</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8457818859679205</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7548506731960245</v>
+        <v>0.09447220795576386</v>
       </c>
       <c r="E122" t="n">
-        <v>0.7502070432831904</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>44621</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8314178054745589</v>
+        <v>0.5548641901343707</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8276147347747844</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9618970566512602</v>
+        <v>0.08647078820209839</v>
       </c>
       <c r="E123" t="n">
-        <v>0.7505054023472113</v>
+        <v>0.06666666666666665</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>44652</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7954831318683658</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8217095570311057</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5362716851339961</v>
+        <v>0.04582352119832925</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6969382685085479</v>
+        <v>0.05333333333333334</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>44682</v>
       </c>
       <c r="B125" t="n">
-        <v>0.8174440166948352</v>
+        <v>0.9297531507320034</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8257191154752621</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8373213481418396</v>
+        <v>0.05608747404409839</v>
       </c>
       <c r="E125" t="n">
-        <v>0.7574979756451474</v>
+        <v>0.02666666666666662</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>44713</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7989289927695611</v>
+        <v>0.8634609793751494</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8259061849629872</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0.08795774559793565</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9976709862639096</v>
+        <v>0.02666666666666662</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>44743</v>
       </c>
       <c r="B127" t="n">
-        <v>0.8140641755195509</v>
+        <v>0.7021570233960444</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8330763197266476</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3707296219929684</v>
+        <v>0.1160682841149195</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4732109611094415</v>
+        <v>0.01333333333333331</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>44774</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8208919451701608</v>
+        <v>0.6461232398439661</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8251705550787586</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4356150255383813</v>
+        <v>0.1099469675794406</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9236480720229472</v>
+        <v>0.02666666666666662</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>44805</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8120903226948355</v>
+        <v>0.6343537641550312</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8250688681905269</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5617259035703712</v>
+        <v>0.08860265721166044</v>
       </c>
       <c r="E129" t="n">
-        <v>0.8420785671979352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>44835</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7984613780182788</v>
+        <v>0.5624905753281257</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8241011740306265</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5863861258720136</v>
+        <v>0.2383948984827638</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6907366034206341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>44866</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8047628919116875</v>
+        <v>0.6056468360159089</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8228511729719241</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4252858022654106</v>
+        <v>0.3146825776440439</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6069710135351849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>44896</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8305827208491328</v>
+        <v>0.6123202873230487</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8209963916862013</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.7567272753999312</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_drdfm/data/example-output/AK/df.xlsx
+++ b/covid19_drdfm/data/example-output/AK/df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,19 +452,64 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Prod</t>
+          <t>RPFI</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FixAss</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>UI</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PartR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>UR</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cons3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cons5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CPIU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PCE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>School</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Hosp1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Deaths1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -474,13 +519,40 @@
         <v>0.6164068416721536</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6988879362211429</v>
       </c>
       <c r="D2" t="n">
+        <v>0.4123081013324243</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.1440860989987424</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3716152849939091</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6188340277468573</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.4804248097350872</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4967522167341814</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -491,13 +563,40 @@
         <v>0.621369126268051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6964375534729241</v>
       </c>
       <c r="D3" t="n">
+        <v>0.4203583294263005</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.1122897721076911</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>0.9843749999999982</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3881658947403123</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.633640607098006</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4783596646895119</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4753169610054069</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +607,40 @@
         <v>0.6823715730082882</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7252642860845485</v>
       </c>
       <c r="D4" t="n">
+        <v>0.5970495453199701</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.1074542998569336</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.3866666666666666</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4189672003984468</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6611122590329717</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4580164258916395</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4362124408304384</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -525,13 +651,40 @@
         <v>0.7201480508129824</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7245312865545143</v>
       </c>
       <c r="D5" t="n">
+        <v>0.6702009340446815</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.05512905676990382</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>0.9531249999999982</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.3866666666666666</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5474312120205354</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7753860701336954</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2823120937051792</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2759848128333319</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +695,40 @@
         <v>0.7105015615464281</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7238061896697557</v>
       </c>
       <c r="D6" t="n">
+        <v>0.651138986448122</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.1015260822542131</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.3866666666666666</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5137745320984681</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7455647985303556</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3408982227867237</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.316837350964585</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -559,13 +739,40 @@
         <v>0.6525811755071577</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5905407340566607</v>
       </c>
       <c r="D7" t="n">
+        <v>0.5550664061952708</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.09407286549104771</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.3733333333333333</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.467304227984755</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7043538458311265</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3934463727922193</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3735877862041102</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -576,13 +783,40 @@
         <v>0.6060805420880557</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5902643485840432</v>
       </c>
       <c r="D8" t="n">
+        <v>0.4639997686150797</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.13148584303806</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.3733333333333333</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.3078345847017711</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5627077883348506</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6527359268372354</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5704963034279991</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -593,13 +827,40 @@
         <v>0.6109846329278866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5899858084384082</v>
       </c>
       <c r="D9" t="n">
+        <v>0.4728878532798978</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.1072413132675408</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.36</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3241100525767334</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5772638365853755</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6040928049754837</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5494444501182414</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -610,13 +871,40 @@
         <v>0.5879194573625603</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6567740819375271</v>
       </c>
       <c r="D10" t="n">
+        <v>0.4373220393817886</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.1979392916345319</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.36</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3270607879848513</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5799758612814837</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.506728251696605</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.5449245868322847</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -627,13 +915,40 @@
         <v>0.6442164614911825</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6557206923270135</v>
       </c>
       <c r="D11" t="n">
+        <v>0.5460185751923782</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.3061360621220456</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.36</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5195074321688301</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.7511115192319733</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3006557725101743</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3053631904044893</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -644,13 +959,40 @@
         <v>0.6359996657102006</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6546681652652039</v>
       </c>
       <c r="D12" t="n">
+        <v>0.529269871538688</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.2255652297550041</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>0.9062499999999982</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.36</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4914081262493017</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.7262241227140437</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.37413804795302</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.3393635314024407</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -661,13 +1003,40 @@
         <v>0.6770921850179689</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.6915421525623598</v>
       </c>
       <c r="D13" t="n">
+        <v>0.5886282697249453</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.2280251376141953</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>0.890625</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.36</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.3137991090726913</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5729011663942425</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.4730736920152049</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4766357901129943</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -678,13 +1047,40 @@
         <v>0.6502556855926304</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6908885538786476</v>
       </c>
       <c r="D14" t="n">
+        <v>0.5356916944483043</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.06453636226351153</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>0.890625</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.3466666666666667</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2218336280287843</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4911981279270818</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.6349860070635606</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.5903560713844669</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -695,13 +1091,40 @@
         <v>0.7273742772258296</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.690239215895008</v>
       </c>
       <c r="D15" t="n">
+        <v>0.6848713148427121</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.124020122677636</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>0.8749999999999982</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.3466666666666667</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4852656874410936</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.7253727882459582</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.2471689513070562</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2632377374361727</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -712,13 +1135,40 @@
         <v>0.5873098952179144</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.555447324749871</v>
       </c>
       <c r="D16" t="n">
+        <v>0.4993078775019156</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.101632600596866</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>0.8749999999999982</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.3466666666666667</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4566801426927505</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.7000013439164592</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2813645162752761</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2983423793122137</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -729,13 +1179,40 @@
         <v>0.5641802033850231</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5541731265675054</v>
       </c>
       <c r="D17" t="n">
+        <v>0.4531636717239993</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.08932505371864924</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>0.859375</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.3466666666666667</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.3802055447857356</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6320659426386058</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.3993518297214528</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.3928492394475876</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -746,13 +1223,40 @@
         <v>0.5400082867983307</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5528805803549757</v>
       </c>
       <c r="D18" t="n">
+        <v>0.4049846918544384</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.1089233083405809</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0.8749999999999982</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.3466666666666667</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.3002119930239733</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5610027530872563</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.4918638127890506</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.4917244055485628</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -763,13 +1267,40 @@
         <v>0.7805034209619559</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7866470702038892</v>
       </c>
       <c r="D19" t="n">
+        <v>0.7871355651972469</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.0586162568637577</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>0.859375</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.3466666666666667</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3483182318232991</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6037944303941524</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4719810427311055</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4317047913931817</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -780,13 +1311,40 @@
         <v>0.7751568136713394</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7861152557926759</v>
       </c>
       <c r="D20" t="n">
+        <v>0.7775401012238624</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.1261853285195023</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>0.859375</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.3466666666666667</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.3324363473071584</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5897132366817639</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4921920362000497</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4510590633598667</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -797,13 +1355,40 @@
         <v>0.7921401658634863</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7855876504635045</v>
       </c>
       <c r="D21" t="n">
+        <v>0.8113428012877414</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.0963279929210932</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>0.859375</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.3466666666666667</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.39285889078143</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.64345113745799</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.3976005690238599</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.3757619736740684</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -814,13 +1399,40 @@
         <v>0.5602705796001579</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5494958084807301</v>
       </c>
       <c r="D22" t="n">
+        <v>0.3559019278356184</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.2421768902759835</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.3466666666666667</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3236905328676077</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5820085171714187</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.4050553748719518</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.4612196127661135</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -831,13 +1443,40 @@
         <v>0.5616119572896627</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5473356982997509</v>
       </c>
       <c r="D23" t="n">
+        <v>0.3557408129048842</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.2947229178095876</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.3333333333333334</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.3303359315692372</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5879488840373032</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.4666731454969064</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4526349185513692</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -848,13 +1487,40 @@
         <v>0.5542663252114519</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5451405098457183</v>
       </c>
       <c r="D24" t="n">
+        <v>0.3386326621321957</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.194697418949688</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.3333333333333334</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.3073150627706033</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5675216881984233</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.504271433281398</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.480853177227112</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -865,13 +1531,40 @@
         <v>0.6771956025949474</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6901305918451194</v>
+        <v>0.7185799043414691</v>
       </c>
       <c r="D25" t="n">
+        <v>0.689730501132671</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.1804486979513476</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.3333333333333334</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3841199473671734</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5983023863007921</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.493934346505972</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4748034148962615</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -882,13 +1575,40 @@
         <v>0.6975406611789488</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7184184788685488</v>
       </c>
       <c r="D26" t="n">
+        <v>0.7289566971886673</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.1270476704292116</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>0.859375</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.3333333333333334</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.4530456474884774</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6598465439678548</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.4316850960443767</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3884346195011176</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -899,13 +1619,40 @@
         <v>0.6755643557920494</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7182579125839158</v>
       </c>
       <c r="D27" t="n">
+        <v>0.6859115239032669</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.1201335951540758</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
+        <v>0.8749999999999982</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.3333333333333334</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.3772892905593939</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.5927949371793544</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4759716818008413</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.4815581995385124</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -916,13 +1663,40 @@
         <v>0.7029687401246343</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7433627191201015</v>
       </c>
       <c r="D28" t="n">
+        <v>0.5570381265009473</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.07921217235477812</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
+        <v>0.8749999999999982</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.3333333333333334</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.3799132829767009</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.595404982265364</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.467607911577312</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4774535384334815</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -933,13 +1707,40 @@
         <v>0.706220521880068</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7418995917187988</v>
       </c>
       <c r="D29" t="n">
+        <v>0.5629245078448855</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.1012240624208627</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
+        <v>0.8749999999999982</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.3333333333333334</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.3907716682732501</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.6053311110018034</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.4694354679379368</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.4631389551986168</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -950,13 +1751,40 @@
         <v>0.7153292372930169</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7404566794793244</v>
       </c>
       <c r="D30" t="n">
+        <v>0.5801950574028988</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.1042910032867682</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
+        <v>0.8749999999999982</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.3333333333333334</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.4216561058683624</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6330537133328408</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4420601940130754</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.4239846246189448</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -967,13 +1795,40 @@
         <v>0.6111041377250467</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6121014589657466</v>
       </c>
       <c r="D31" t="n">
+        <v>0.4052536037584358</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.07000526180675472</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
+        <v>0.859375</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.32</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.4009935575981194</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.6149590195372724</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4328522352647602</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.4487866930954535</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -984,13 +1839,40 @@
         <v>0.6361962443248149</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6102371619652034</v>
       </c>
       <c r="D32" t="n">
+        <v>0.4517264160623587</v>
+      </c>
+      <c r="E32" t="n">
         <v>0.111449767111071</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.32</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.4867731125217457</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6914669797705615</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.3723022077765162</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.3415369639278926</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1001,13 +1883,40 @@
         <v>0.6301351633293351</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6083600141022174</v>
       </c>
       <c r="D33" t="n">
+        <v>0.4376013537425629</v>
+      </c>
+      <c r="E33" t="n">
         <v>0.09578990577042812</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
+        <v>0.8281249999999982</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.3066666666666666</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.4660562244070932</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.6733189330884224</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3832166305801797</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.3664175283812016</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1018,13 +1927,40 @@
         <v>0.5295629292596407</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5141781198908443</v>
       </c>
       <c r="D34" t="n">
+        <v>0.3450864625084912</v>
+      </c>
+      <c r="E34" t="n">
         <v>0.17172887274119</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.28</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.4921371494806148</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.696762029295724</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3705152434098531</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3332441322955792</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1035,13 +1971,40 @@
         <v>0.5357992890571851</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5115474109308813</v>
       </c>
       <c r="D35" t="n">
+        <v>0.3554917507730047</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.2772965514400872</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.5187576612041231</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.7206822146105212</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.2910385964014466</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.2994073764003015</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1052,13 +2015,40 @@
         <v>0.5459360694544858</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5088619799139571</v>
       </c>
       <c r="D36" t="n">
+        <v>0.3734275346859928</v>
+      </c>
+      <c r="E36" t="n">
         <v>0.2158126148065936</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
+        <v>0.7968749999999982</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.2533333333333333</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.5588457607472801</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7565697882470301</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2342588880723614</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.2488690215870865</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1069,13 +2059,40 @@
         <v>0.4933860342845025</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8591709228043908</v>
+        <v>0.3547265362115767</v>
       </c>
       <c r="D37" t="n">
+        <v>0.2219328654295488</v>
+      </c>
+      <c r="E37" t="n">
         <v>0.1607343666376183</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
+        <v>0.7968749999999982</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.24</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.736422859986667</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8944857165482275</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.07870096975326518</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.04537957508667029</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1086,13 +2103,40 @@
         <v>0.3913327842232263</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.3490210497589553</v>
       </c>
       <c r="D38" t="n">
+        <v>0.02066430644766615</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.1319021989761222</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.2533333333333333</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.4028281832137279</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.5983718635024124</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.4991270461619542</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.4583112661122414</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1103,13 +2147,40 @@
         <v>0.3822867495056693</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.3431045764960596</v>
       </c>
       <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
         <v>0.1190369140199784</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.2533333333333333</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.3877857035754558</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5853803008767242</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5066174053952723</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.4760612826169863</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1120,13 +2191,40 @@
         <v>0.6819479128400981</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6416156687071709</v>
       </c>
       <c r="D40" t="n">
+        <v>0.5500993026782202</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.07275719059816861</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.2533333333333333</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.4480567057847354</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.639322857729796</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.4289422565245661</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4003838982043652</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +2235,40 @@
         <v>0.656809246632998</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6412993597203802</v>
       </c>
       <c r="D41" t="n">
+        <v>0.5007813642048797</v>
+      </c>
+      <c r="E41" t="n">
         <v>0.05308076206967416</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
+        <v>0.765625</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.2533333333333333</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.3613915449337928</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5626670408976376</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5349905266530876</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5070034216096323</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1154,13 +2279,40 @@
         <v>0.6638021090385847</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6409825238139161</v>
       </c>
       <c r="D42" t="n">
+        <v>0.5138873838835443</v>
+      </c>
+      <c r="E42" t="n">
         <v>0.1240000415842817</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.2533333333333333</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.3845836663884487</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5836474884963271</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5101022712614719</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.4773400819806607</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1171,13 +2323,40 @@
         <v>0.5757505992860273</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5607974094476853</v>
       </c>
       <c r="D43" t="n">
+        <v>0.3950184024251264</v>
+      </c>
+      <c r="E43" t="n">
         <v>0.06637858167142739</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.24</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.4430255937688837</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6359540202084278</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.4545412938591608</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.4039482794265793</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1188,13 +2367,40 @@
         <v>0.5877020937600063</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.559579032339998</v>
       </c>
       <c r="D44" t="n">
+        <v>0.4171857103540017</v>
+      </c>
+      <c r="E44" t="n">
         <v>0.1354541324196869</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
+        <v>0.7187499999999982</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.24</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.4854230052308575</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6739969779949665</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.3796449961608567</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3504672440466652</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1205,13 +2411,40 @@
         <v>0.6101593227730051</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5583439174375466</v>
       </c>
       <c r="D45" t="n">
+        <v>0.4597360368559176</v>
+      </c>
+      <c r="E45" t="n">
         <v>0.1258471948126747</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
+        <v>0.7187499999999982</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.24</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.5637726687511332</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.7439902740101937</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.2738033829246919</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2523886087700005</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1222,13 +2455,40 @@
         <v>0.6166005006397922</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5546500566625731</v>
       </c>
       <c r="D46" t="n">
+        <v>0.5224375777467085</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.239331943070692</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.2533333333333333</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.4922390048465817</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.680766471649467</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.4264502145385787</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3402699778727123</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1239,13 +2499,40 @@
         <v>0.6045189410425847</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5542643744759459</v>
       </c>
       <c r="D47" t="n">
+        <v>0.4987177464801133</v>
+      </c>
+      <c r="E47" t="n">
         <v>0.2982344488436959</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.2533333333333333</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.4514792928498822</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.6448909546598103</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.4361074937639563</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.3899771723142749</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1256,13 +2543,40 @@
         <v>0.6262390898640361</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5538752256839737</v>
       </c>
       <c r="D48" t="n">
+        <v>0.5406525530207931</v>
+      </c>
+      <c r="E48" t="n">
         <v>0.2411146563540022</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.526299489758832</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.7117375151824571</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.3291286649421136</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2962969840750834</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1273,13 +2587,40 @@
         <v>0.6218268913301505</v>
       </c>
       <c r="C49" t="n">
-        <v>0.774400728555791</v>
+        <v>0.5948688553889857</v>
       </c>
       <c r="D49" t="n">
+        <v>0.5392456338500234</v>
+      </c>
+      <c r="E49" t="n">
         <v>0.1810869781882656</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.3721913703486873</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.6564626145068974</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.3582333302100829</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3836131576258782</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1290,13 +2631,40 @@
         <v>0.6391815304710607</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5943512238518681</v>
       </c>
       <c r="D50" t="n">
+        <v>0.5721104614232108</v>
+      </c>
+      <c r="E50" t="n">
         <v>0.1450492108969805</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.28</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.4320881216878026</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.709590729940069</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.317139331932879</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.3090349245371968</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1307,13 +2675,40 @@
         <v>0.5934462590949157</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5938291385203029</v>
       </c>
       <c r="D51" t="n">
+        <v>0.4824321223847348</v>
+      </c>
+      <c r="E51" t="n">
         <v>0.1168125513883238</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.28</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.2762964858080388</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.5710201526277318</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.527342817213182</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.5020503700685595</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1324,13 +2719,40 @@
         <v>0.7080970658943831</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6967611318978942</v>
       </c>
       <c r="D52" t="n">
+        <v>0.655373157201408</v>
+      </c>
+      <c r="E52" t="n">
         <v>0.09495281366725412</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.28</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.2236978844121685</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.5241661615053745</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5600276253743403</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5670467174847416</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1341,13 +2763,40 @@
         <v>0.7359868866891046</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6967050716078289</v>
       </c>
       <c r="D53" t="n">
+        <v>0.7097657568353717</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.08060951510601597</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.2933333333333332</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.319914249414239</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.6095766029864057</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.4911291353516724</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.4474101839558776</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1358,13 +2807,40 @@
         <v>0.7291516259314216</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6966491376399119</v>
       </c>
       <c r="D54" t="n">
+        <v>0.6967105091955808</v>
+      </c>
+      <c r="E54" t="n">
         <v>0.07851934698335698</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.2933333333333332</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.2974017946350853</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.5894639887073575</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5104932049111612</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.4750798724793894</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1375,13 +2851,40 @@
         <v>0.7135596353022643</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6826494856703278</v>
       </c>
       <c r="D55" t="n">
+        <v>0.6776908460011312</v>
+      </c>
+      <c r="E55" t="n">
         <v>0.07622147335176178</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.2933333333333332</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.3762402333143668</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.6594306795439036</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.3560972505717873</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3770002146735688</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1392,13 +2895,40 @@
         <v>0.696689180193885</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6825011957541998</v>
       </c>
       <c r="D56" t="n">
+        <v>0.6446683096247459</v>
+      </c>
+      <c r="E56" t="n">
         <v>0.1483729308955621</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
+        <v>0.6406249999999982</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.3066666666666666</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.3185601046016063</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.6080631518203777</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.4669182200412889</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.4483057036224152</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1409,13 +2939,40 @@
         <v>0.6929516378683822</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6823536020611988</v>
       </c>
       <c r="D57" t="n">
+        <v>0.6371560615953817</v>
+      </c>
+      <c r="E57" t="n">
         <v>0.1142087580194815</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
+        <v>0.6406249999999982</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.3066666666666666</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.3057795093949564</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.5966021052788174</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5033182562553414</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.4639043941577581</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1426,13 +2983,40 @@
         <v>0.7378023525807629</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7208721051360502</v>
       </c>
       <c r="D58" t="n">
+        <v>0.7087069097405849</v>
+      </c>
+      <c r="E58" t="n">
         <v>0.2272379146745629</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.3066666666666666</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.2804040946756051</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.5739477274955569</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.4901319569909405</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4951326378303469</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1443,13 +3027,40 @@
         <v>0.7656909454793792</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7207452720835459</v>
       </c>
       <c r="D59" t="n">
+        <v>0.7632923034423511</v>
+      </c>
+      <c r="E59" t="n">
         <v>0.2675140607393116</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.3066666666666666</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.3770478752785663</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.6597421467117236</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4353786391004341</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3749590851079466</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1460,13 +3071,40 @@
         <v>0.7429254332089504</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7206188415858598</v>
       </c>
       <c r="D60" t="n">
+        <v>0.7194785679803263</v>
+      </c>
+      <c r="E60" t="n">
         <v>0.177570167950808</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.3066666666666666</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.3004974404735422</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.5916058267706304</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.4986856164755484</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.4696874400129951</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1477,13 +3115,40 @@
         <v>0.7323538767891067</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7424185238188414</v>
+        <v>0.7710369257969549</v>
       </c>
       <c r="D61" t="n">
+        <v>0.7086291383351169</v>
+      </c>
+      <c r="E61" t="n">
         <v>0.2248148594884905</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.2933333333333332</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.2959783550428703</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.5067861290659341</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5700337409100718</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.5945197158673194</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1494,13 +3159,40 @@
         <v>0.7655461993424407</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7706635480280962</v>
       </c>
       <c r="D62" t="n">
+        <v>0.7736921165966136</v>
+      </c>
+      <c r="E62" t="n">
         <v>0.1291275243538341</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.2933333333333332</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.4109265027109422</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.6093173839040243</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.454856946818932</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.4509475508562953</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1511,13 +3203,40 @@
         <v>0.7972672935453989</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7702922086949596</v>
       </c>
       <c r="D63" t="n">
+        <v>0.8358918696886146</v>
+      </c>
+      <c r="E63" t="n">
         <v>0.09801427958188021</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.28</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.5208220451299573</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.7073543013325927</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.3578150554331625</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.3136462231982902</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1528,13 +3247,40 @@
         <v>0.6656121123152663</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6700990149697352</v>
       </c>
       <c r="D64" t="n">
+        <v>0.5933265439092013</v>
+      </c>
+      <c r="E64" t="n">
         <v>0.08969926805070813</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.28</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.3743706401187668</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.5775522941257779</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.4379823293781138</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.494451217290218</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1545,13 +3291,40 @@
         <v>0.7040975319800307</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6698683428884042</v>
       </c>
       <c r="D65" t="n">
+        <v>0.667622958213513</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.06547998092324661</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.28</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.5052305313611301</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.6942148359945847</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.3433451879440547</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.331147622564597</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1562,13 +3335,40 @@
         <v>0.6848653951925091</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6696383979078712</v>
       </c>
       <c r="D66" t="n">
+        <v>0.6297922665996967</v>
+      </c>
+      <c r="E66" t="n">
         <v>0.05171211129733437</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
+        <v>0.6406249999999982</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.28</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.4387673539454455</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.6354978242351601</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.410549347079741</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.4127100526845274</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1579,13 +3379,40 @@
         <v>0.7631244529995055</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6881889272183079</v>
       </c>
       <c r="D67" t="n">
+        <v>0.7303191220129052</v>
+      </c>
+      <c r="E67" t="n">
         <v>0.09963686794957161</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
+        <v>0.6406249999999982</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.28</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.475171422685127</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.668203427183047</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.3952852113377378</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.366630055938128</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1596,13 +3423,40 @@
         <v>0.7299326898404672</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6881426576688998</v>
       </c>
       <c r="D68" t="n">
+        <v>0.666232054515584</v>
+      </c>
+      <c r="E68" t="n">
         <v>0.1329093331748759</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.28</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.3622987212875992</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.5682323369002039</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5609150233935125</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.5057985423575317</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1613,13 +3467,40 @@
         <v>0.7081952081824725</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6880965200813338</v>
       </c>
       <c r="D69" t="n">
+        <v>0.6243912826535645</v>
+      </c>
+      <c r="E69" t="n">
         <v>0.09028407413057055</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.28</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.2885787682304828</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.503056065462072</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.6199503001817661</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.5963943696088615</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1630,13 +3511,40 @@
         <v>0.7249881364338913</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7314333913201874</v>
       </c>
       <c r="D70" t="n">
+        <v>0.6184220294347024</v>
+      </c>
+      <c r="E70" t="n">
         <v>0.2330396301547218</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.28</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.4083789391061121</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.6098722765330948</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.4163665091399184</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.4468423272355074</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1647,13 +3555,40 @@
         <v>0.7218947361669726</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7306567307686888</v>
       </c>
       <c r="D71" t="n">
+        <v>0.6123931805706908</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.2859215980242332</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
+        <v>0.5624999999999982</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.28</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.3978497203839421</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.6008518847650075</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5054531287823583</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.4590309533742618</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1664,13 +3599,40 @@
         <v>0.7249093672816266</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7298889708412717</v>
       </c>
       <c r="D72" t="n">
+        <v>0.6182297046929542</v>
+      </c>
+      <c r="E72" t="n">
         <v>0.2095573547602889</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.4082025992596675</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.6103878182628796</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.4790655403947179</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.4453109362670312</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1681,13 +3643,40 @@
         <v>0.6609278851124062</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2829172649037662</v>
+        <v>0.6792481955140109</v>
       </c>
       <c r="D73" t="n">
+        <v>0.564490034760965</v>
+      </c>
+      <c r="E73" t="n">
         <v>0.1916099532807182</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.2533333333333333</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.2110062700392378</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.5377076479996922</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5579617292651852</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.5845592073605441</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1698,13 +3687,40 @@
         <v>0.6782284753078431</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6788376815671102</v>
       </c>
       <c r="D74" t="n">
+        <v>0.5973936226970571</v>
+      </c>
+      <c r="E74" t="n">
         <v>0.1604063536251415</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.24</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.2700971514834909</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.5899821714006889</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5115782435314746</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.5109565490996958</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1715,13 +3731,40 @@
         <v>0.6942504408829298</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6784290597405053</v>
       </c>
       <c r="D75" t="n">
+        <v>0.6278164597516768</v>
+      </c>
+      <c r="E75" t="n">
         <v>0.09650908867588781</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.2266666666666666</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.3248168770967785</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.638373624696924</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.4066752155894716</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.4427751270576807</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1732,13 +3775,40 @@
         <v>0.6701090731046015</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6700204322535941</v>
       </c>
       <c r="D76" t="n">
+        <v>0.5760189049058029</v>
+      </c>
+      <c r="E76" t="n">
         <v>0.1089714030996026</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.2133333333333334</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.2957063741843658</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.6122608687168674</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4864555798421895</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.4786371387610173</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1749,13 +3819,40 @@
         <v>0.6710208021234072</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6694028145124459</v>
       </c>
       <c r="D77" t="n">
+        <v>0.5767949382631963</v>
+      </c>
+      <c r="E77" t="n">
         <v>0.02954573504921448</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.2000000000000001</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.2986352110122687</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.6146256550633378</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.4990037387758953</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.4747357898329815</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1766,13 +3863,40 @@
         <v>0.6826701985898324</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6687871300002788</v>
       </c>
       <c r="D78" t="n">
+        <v>0.5984330070010061</v>
+      </c>
+      <c r="E78" t="n">
         <v>0.05045331288529883</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.2000000000000001</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.3382756815663497</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.6496205721504816</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.443536424040789</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.4252693290014958</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1783,13 +3907,40 @@
         <v>0.7197686179088395</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6722912355079091</v>
       </c>
       <c r="D79" t="n">
+        <v>0.721307231783629</v>
+      </c>
+      <c r="E79" t="n">
         <v>0.1246226386877379</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.2000000000000001</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.3498756282687854</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.659695613144677</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.4183183667114636</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.4106060248146821</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1800,13 +3951,40 @@
         <v>0.7217976974583994</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6722671662725844</v>
       </c>
       <c r="D80" t="n">
+        <v>0.7249426007729709</v>
+      </c>
+      <c r="E80" t="n">
         <v>0.06500747782321484</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
+        <v>0.4843749999999982</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.1866666666666666</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.3570422385365659</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.6658321980716662</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4596972479140294</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.4014460896849275</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1817,13 +3995,40 @@
         <v>0.7001108841853869</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6722431532847124</v>
       </c>
       <c r="D81" t="n">
+        <v>0.6825048317401712</v>
+      </c>
+      <c r="E81" t="n">
         <v>0.1149935143650011</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.1866666666666666</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.2831252893738379</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.5999056946807625</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.4715287686595205</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.4929293032856058</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1834,13 +4039,40 @@
         <v>0.6507496823181886</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6313982624224876</v>
       </c>
       <c r="D82" t="n">
+        <v>0.6338131850723103</v>
+      </c>
+      <c r="E82" t="n">
         <v>0.1838403990939367</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
+        <v>0.453125</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.2000000000000001</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.3075151353138864</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.6213533346537194</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4961603152117828</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.4623951462855568</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1851,13 +4083,40 @@
         <v>0.6708553423466506</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6313274530767857</v>
       </c>
       <c r="D83" t="n">
+        <v>0.6722247233971586</v>
+      </c>
+      <c r="E83" t="n">
         <v>0.3205300384075511</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.2000000000000001</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.3760741077912227</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.6820590032799929</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.3415997683456339</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.3770355175799077</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1868,13 +4127,40 @@
         <v>0.6741237090032509</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6312564278961483</v>
       </c>
       <c r="D84" t="n">
+        <v>0.6779283159445241</v>
+      </c>
+      <c r="E84" t="n">
         <v>0.2166467015686408</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.2000000000000001</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.3870692612943165</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.691605209814543</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.3600564217250121</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.363126848302969</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1885,13 +4171,40 @@
         <v>0.6257482852633167</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4480363918298151</v>
+        <v>0.5380038076195637</v>
       </c>
       <c r="D85" t="n">
+        <v>0.4846011916670936</v>
+      </c>
+      <c r="E85" t="n">
         <v>0.21112718323324</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="G85" t="n">
         <v>0.1866666666666666</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.38060800858999</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.6637348476713594</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.3647174717258458</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.3413700357352675</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1902,13 +4215,40 @@
         <v>0.5994275175881978</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5370974897380227</v>
       </c>
       <c r="D86" t="n">
+        <v>0.4317909905749546</v>
+      </c>
+      <c r="E86" t="n">
         <v>0.1460497254908808</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.1733333333333333</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.2914418743673499</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.5844031455487254</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5038792710841919</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4518928102118103</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1919,13 +4259,40 @@
         <v>0.581022867246383</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5361781692859274</v>
       </c>
       <c r="D87" t="n">
+        <v>0.3943422823673892</v>
+      </c>
+      <c r="E87" t="n">
         <v>0.1070097978083133</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.1599999999999999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.2293484601787314</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.529133362648171</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5913563343395413</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.5288153546383316</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1936,13 +4303,40 @@
         <v>0.6316208854271055</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6717173459646942</v>
       </c>
       <c r="D88" t="n">
+        <v>0.5113343420791659</v>
+      </c>
+      <c r="E88" t="n">
         <v>0.05311231739864392</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.1466666666666666</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.2102772964608014</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.5121009649939674</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5446092017417534</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.5523390153470887</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1953,13 +4347,40 @@
         <v>0.6685910221009247</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.671097408710753</v>
       </c>
       <c r="D89" t="n">
+        <v>0.5824146770969671</v>
+      </c>
+      <c r="E89" t="n">
         <v>0.01913603512735493</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.1466666666666666</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.3365713685507207</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.6242656137512552</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.4097728513891348</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.3954151972617328</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1970,13 +4391,40 @@
         <v>0.6681686659419835</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6704795819673446</v>
       </c>
       <c r="D90" t="n">
+        <v>0.5808528460183082</v>
+      </c>
+      <c r="E90" t="n">
         <v>0.1362984965529224</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.1466666666666666</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.3350251362909993</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.6228097811480168</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.38649153885636</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.3971814658891918</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1987,13 +4435,40 @@
         <v>0.7282777117401232</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6890074709431352</v>
       </c>
       <c r="D91" t="n">
+        <v>0.6440845451601475</v>
+      </c>
+      <c r="E91" t="n">
         <v>0.08302764632481906</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
+        <v>0.453125</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.1466666666666666</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.2963574267842192</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.588361854413925</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.4792752537025191</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.4450293330044859</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2004,13 +4479,40 @@
         <v>0.7451096573892022</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6888257965830289</v>
       </c>
       <c r="D92" t="n">
+        <v>0.6769068889201685</v>
+      </c>
+      <c r="E92" t="n">
         <v>0.1233335959615849</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
+        <v>0.453125</v>
+      </c>
+      <c r="G92" t="n">
         <v>0.1466666666666666</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.3546119094660437</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.6400560923890393</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4312301472581591</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.3725625009123246</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2021,13 +4523,40 @@
         <v>0.7396588655575723</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.6886451200631375</v>
       </c>
       <c r="D93" t="n">
+        <v>0.6664407389538914</v>
+      </c>
+      <c r="E93" t="n">
         <v>0.1225453046803383</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.1333333333333334</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.3366780320848706</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.6240366733494248</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.4565441355295847</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.3946731689518042</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2038,13 +4567,40 @@
         <v>0.6526932992257946</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5786741795325205</v>
       </c>
       <c r="D94" t="n">
+        <v>0.5504646538186877</v>
+      </c>
+      <c r="E94" t="n">
         <v>0.2005696490265312</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.12</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.2687814009889398</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.5636122071728021</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5099701165816628</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4788079942813838</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2055,13 +4611,40 @@
         <v>0.676616113422199</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5784957739625105</v>
       </c>
       <c r="D95" t="n">
+        <v>0.5962569747663878</v>
+      </c>
+      <c r="E95" t="n">
         <v>0.3435755222492816</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.1066666666666667</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.3504573084600842</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.6361240057127986</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.4682875810744797</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.3772658944031694</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2072,13 +4655,40 @@
         <v>0.6456108962880549</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.5783163904803252</v>
       </c>
       <c r="D96" t="n">
+        <v>0.5353440412250763</v>
+      </c>
+      <c r="E96" t="n">
         <v>0.2087906175649007</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="G96" t="n">
         <v>0.1066666666666667</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.2443406774948725</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.5417315321342284</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4666626050633214</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.5088502526824112</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2089,13 +4699,40 @@
         <v>0.5518712805846355</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0.4865329413764895</v>
       </c>
       <c r="D97" t="n">
+        <v>0.4341122652007454</v>
+      </c>
+      <c r="E97" t="n">
         <v>0.1689552854503726</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="G97" t="n">
         <v>0.1066666666666667</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.6291274821710358</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.1430297077471519</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4562957516250217</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.4734480376515848</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2106,13 +4743,40 @@
         <v>0.5626205813947409</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.485616545651236</v>
       </c>
       <c r="D98" t="n">
+        <v>0.4541490578551428</v>
+      </c>
+      <c r="E98" t="n">
         <v>0.1138347626910712</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
+        <v>0.4062499999999982</v>
+      </c>
+      <c r="G98" t="n">
         <v>0.1066666666666667</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.6649140438854719</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.1756708859233448</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.439059555797408</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.424602667585211</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.4902777777777778</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="99">
@@ -2123,13 +4787,40 @@
         <v>0.6138800449416087</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.4846887822534615</v>
       </c>
       <c r="D99" t="n">
+        <v>0.5528639579173724</v>
+      </c>
+      <c r="E99" t="n">
         <v>0.1588027269158376</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.1066666666666667</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.839295879703736</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.3314062294521104</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.2262743642876197</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.2037694338868463</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.5680555555555555</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="100">
@@ -2140,13 +4831,40 @@
         <v>0.1854891697657058</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.02429874759627426</v>
       </c>
       <c r="D100" t="n">
+        <v>0.5121441601455614</v>
+      </c>
+      <c r="E100" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
         <v>1</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.4749001617302699</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.4486111111111111</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="101">
@@ -2157,13 +4875,40 @@
         <v>0.06373611065004237</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.01238891443383294</v>
       </c>
       <c r="D101" t="n">
+        <v>0.3151848239728552</v>
+      </c>
+      <c r="E101" t="n">
         <v>0.1308972280643041</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
+        <v>0.234375</v>
+      </c>
+      <c r="G101" t="n">
         <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.6589972097520453</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.1724127261425952</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.3522132825430839</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.4191087760340794</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.4930555555555556</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="102">
@@ -2174,13 +4919,40 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6709307585010981</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
+        <v>0.2344693308744393</v>
+      </c>
+      <c r="E102" t="n">
         <v>0.1087147453695275</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
+        <v>0.265625</v>
+      </c>
+      <c r="G102" t="n">
         <v>0.9200000000000002</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.5228293275650104</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.0518932306504406</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.6138188260274466</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.584004465612227</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.5319444444444444</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="103">
@@ -2191,13 +4963,40 @@
         <v>0.9957808963720891</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.9032618769222425</v>
       </c>
       <c r="D103" t="n">
+        <v>0.4744058721780943</v>
+      </c>
+      <c r="E103" t="n">
         <v>0.09586263734510431</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G103" t="n">
         <v>0.9066666666666665</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.5522104186775317</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.07842460218308966</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.6223428498919439</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.5434576528203223</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="104">
@@ -2208,13 +5007,40 @@
         <v>0.986287117004685</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.896085248122525</v>
       </c>
       <c r="D104" t="n">
+        <v>0.4698558371609725</v>
+      </c>
+      <c r="E104" t="n">
         <v>0.0358803669984015</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
+        <v>0.109375</v>
+      </c>
+      <c r="G104" t="n">
         <v>0.4533333333333334</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.5432408190528584</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.07078918421079522</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.568632768710604</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.5505825123141614</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="105">
@@ -2225,13 +5051,40 @@
         <v>0.997992660056092</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.8891570683900902</v>
       </c>
       <c r="D105" t="n">
+        <v>0.5058069494458777</v>
+      </c>
+      <c r="E105" t="n">
         <v>0.01094657111090652</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="G105" t="n">
         <v>0.4399999999999999</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.6056402721312546</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.126501276210556</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.4905468607131919</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.4691651242231111</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.4263888888888889</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="106">
@@ -2242,13 +5095,40 @@
         <v>0.8907890136135153</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6709307585010981</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
+        <v>0.9983767499072306</v>
+      </c>
+      <c r="E106" t="n">
         <v>0.02270134778887667</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
+        <v>0.21875</v>
+      </c>
+      <c r="G106" t="n">
         <v>0.3866666666666666</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.681989764244221</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.1945292938948775</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.4091997879257664</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.3704858047871205</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.8319444444444445</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="107">
@@ -2259,13 +5139,40 @@
         <v>0.8904422706182485</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.9968677463029544</v>
       </c>
       <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" t="n">
         <v>0.1670730428916797</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
+        <v>0.265625</v>
+      </c>
+      <c r="G107" t="n">
         <v>0.3733333333333333</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.6869848625461167</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.1990589279216502</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.4466437111373774</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.3604508898478792</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.8986111111111111</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="108">
@@ -2276,13 +5183,40 @@
         <v>0.8231783316580503</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.993784542144389</v>
       </c>
       <c r="D108" t="n">
+        <v>0.8715594191868683</v>
+      </c>
+      <c r="E108" t="n">
         <v>0.164798398250988</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="G108" t="n">
         <v>0.3866666666666666</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.4629984377363224</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.5321018246348093</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.6347580487982594</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.2291666666666667</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="109">
@@ -2293,13 +5227,40 @@
         <v>0.8532357987090885</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3638093175350565</v>
+        <v>0.789866209002537</v>
       </c>
       <c r="D109" t="n">
+        <v>0.881655471824164</v>
+      </c>
+      <c r="E109" t="n">
         <v>0.1437737888704036</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
+        <v>0.3281249999999982</v>
+      </c>
+      <c r="G109" t="n">
         <v>0.36</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.9694375835674032</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.8942852416597804</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.4943928131909315</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.6037037115663818</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.06805555555555559</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="110">
@@ -2310,13 +5271,40 @@
         <v>0.8578370890224951</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.789035365903482</v>
       </c>
       <c r="D110" t="n">
+        <v>0.8927996907281244</v>
+      </c>
+      <c r="E110" t="n">
         <v>0.06560191823470822</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
+        <v>0.359375</v>
+      </c>
+      <c r="G110" t="n">
         <v>0.3466666666666667</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.9816446472823632</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.9123927749720839</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.5855552089591999</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.5706666070314782</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.4180555555555556</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="111">
@@ -2327,13 +5315,40 @@
         <v>0.8148460278859364</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7882154671866227</v>
       </c>
       <c r="D111" t="n">
+        <v>0.8114050702423685</v>
+      </c>
+      <c r="E111" t="n">
         <v>0.08684425968862515</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="G111" t="n">
         <v>0.3466666666666667</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.831291903212072</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.7857331857525687</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.6801679785195373</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.7400453832541867</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.5736111111111112</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="112">
@@ -2344,13 +5359,40 @@
         <v>0.7908049676540101</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7753734210544054</v>
       </c>
       <c r="D112" t="n">
+        <v>0.8890207547542353</v>
+      </c>
+      <c r="E112" t="n">
         <v>0.08858162541534628</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="G112" t="n">
         <v>0.3466666666666667</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.8498225066127758</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.8088900654499713</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.681290936005489</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.7002871988514806</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.5652777777777778</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="113">
@@ -2361,13 +5403,40 @@
         <v>0.7924606105483781</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7749640043932584</v>
       </c>
       <c r="D113" t="n">
+        <v>0.8924451724675204</v>
+      </c>
+      <c r="E113" t="n">
         <v>0.06723860588676225</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.32</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.84978527741812</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.8152819474167561</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.7097890436050871</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.6841032456783056</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.3041666666666667</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="114">
@@ -2378,13 +5447,40 @@
         <v>0.7829494782701982</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7745570401292083</v>
       </c>
       <c r="D114" t="n">
+        <v>0.8741583256722927</v>
+      </c>
+      <c r="E114" t="n">
         <v>0.05680511272516202</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="G114" t="n">
         <v>0.32</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.811798827581957</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.7876978399749555</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.7918698206865462</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.715542120094006</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.4486111111111111</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="115">
@@ -2395,13 +5491,40 @@
         <v>0.8191143053132359</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7163907372986416</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>0.9576201531926611</v>
       </c>
       <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="G115" t="n">
         <v>0.28</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.85188475011136</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.8292631168897804</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.5933676549433829</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.6505039259497141</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.8680555555555556</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="116">
@@ -2412,13 +5535,40 @@
         <v>0.8261995895600249</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.716003628716688</v>
       </c>
       <c r="D116" t="n">
+        <v>0.9721585363463837</v>
+      </c>
+      <c r="E116" t="n">
         <v>0.04715612640420984</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G116" t="n">
         <v>0.2533333333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.8729422197847103</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.8536926945053853</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5369842896455852</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.6095448924487573</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.808695652173913</v>
       </c>
     </row>
     <row r="117">
@@ -2429,13 +5579,40 @@
         <v>0.8364256009224009</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7156199213922747</v>
       </c>
       <c r="D117" t="n">
+        <v>0.9927587757655381</v>
+      </c>
+      <c r="E117" t="n">
         <v>0.3121435017940396</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="G117" t="n">
         <v>0.2000000000000001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.9048671340149834</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.8875673446333203</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5733056891296506</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.5555198119347867</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2446,13 +5623,40 @@
         <v>0.8730233769786331</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7386504612041936</v>
       </c>
       <c r="D118" t="n">
+        <v>0.9133768099398299</v>
+      </c>
+      <c r="E118" t="n">
         <v>0.04351923620271793</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
+        <v>0.5624999999999982</v>
+      </c>
+      <c r="G118" t="n">
         <v>0.1733333333333333</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.7552825004128376</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.7599269673529918</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.7869501147721993</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.727339110023481</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.4521739130434782</v>
       </c>
     </row>
     <row r="119">
@@ -2463,13 +5667,40 @@
         <v>0.8622525100974402</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7382879919308871</v>
       </c>
       <c r="D119" t="n">
+        <v>0.8975806753550909</v>
+      </c>
+      <c r="E119" t="n">
         <v>0.1678222464745851</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
+        <v>0.5624999999999982</v>
+      </c>
+      <c r="G119" t="n">
         <v>0.1466666666666666</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.7236343526318685</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.7369079797606888</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.7086646182002438</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.7530938587693652</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2480,13 +5711,40 @@
         <v>0.8687237521401663</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6709307585010981</v>
+        <v>0.7379287510439505</v>
       </c>
       <c r="D120" t="n">
+        <v>0.9150597019668663</v>
+      </c>
+      <c r="E120" t="n">
         <v>0.2223187555156418</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
+        <v>0.5624999999999982</v>
+      </c>
+      <c r="G120" t="n">
         <v>0.1466666666666666</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.7506981023718784</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.7658845852887735</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.6505070675988471</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.7063060091136275</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.2708333333333334</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="121">
@@ -2500,10 +5758,37 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
         <v>0.1447208415238817</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G121" t="n">
         <v>0.1599999999999999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.2487536750482528</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.7283352818309599</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.6833060359507753</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.6972321076461721</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.7611111111111112</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="122">
@@ -2517,10 +5802,37 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
         <v>0.09447220795576386</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
+        <v>0.6406249999999982</v>
+      </c>
+      <c r="G122" t="n">
         <v>0.12</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.2133954156707087</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.6942198334166929</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.7548506731960245</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.7398704241936578</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.1958333333333334</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="123">
@@ -2534,10 +5846,37 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
         <v>0.08647078820209839</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G123" t="n">
         <v>0.06666666666666665</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.02403558055803118</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.523293682329864</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.9618970566512602</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.9738455872944172</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.3402777777777778</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="124">
@@ -2551,10 +5890,37 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
         <v>0.04582352119832925</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
+        <v>0.6406249999999982</v>
+      </c>
+      <c r="G124" t="n">
         <v>0.05333333333333334</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.4195750209074637</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.8722352710081693</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.5362716851339961</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.4812012897864462</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.4222222222222223</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="125">
@@ -2568,10 +5934,37 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
         <v>0.05608747404409839</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="G125" t="n">
         <v>0.02666666666666662</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.2035532341687021</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.6777184075318488</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.8373213481418396</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.7483215705549733</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.538888888888889</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="126">
@@ -2585,10 +5978,37 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
         <v>0.08795774559793565</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
+        <v>0.6406249999999982</v>
+      </c>
+      <c r="G126" t="n">
         <v>0.02666666666666662</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.494332494168805</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="127">
@@ -2602,10 +6022,37 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
         <v>0.1160682841149195</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G127" t="n">
         <v>0.01333333333333331</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.571718636130089</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.3707296219929684</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.2884122331018379</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="128">
@@ -2619,10 +6066,37 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
         <v>0.1099469675794406</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="G128" t="n">
         <v>0.02666666666666662</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.3791435934469453</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.8264669258996935</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.4356150255383813</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.5264563935012007</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.4944444444444445</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="129">
@@ -2636,10 +6110,37 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
         <v>0.08860265721166044</v>
       </c>
-      <c r="E129" t="n">
-        <v>0</v>
+      <c r="F129" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.3379191236464377</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.7874893281163708</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.5617259035703712</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.5764609710971633</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.4027777777777778</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="130">
@@ -2653,10 +6154,37 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
         <v>0.2383948984827638</v>
       </c>
-      <c r="E130" t="n">
-        <v>0</v>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.3192550978809829</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.7686067431557102</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.5863861258720136</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.5984463686739868</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.4763888888888889</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="131">
@@ -2670,10 +6198,37 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
         <v>0.3146825776440439</v>
       </c>
-      <c r="E131" t="n">
-        <v>0</v>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.4668694500670061</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.8975438441197691</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.4252858022654106</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.4138219580597101</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.4597222222222223</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="132">
@@ -2691,6 +6246,33 @@
       </c>
       <c r="E132" t="n">
         <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.4897642955545403</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.9156820618370966</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.3841808102347977</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.4944444444444445</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.5652173913043478</v>
       </c>
     </row>
   </sheetData>
